--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31847690514212423</v>
+        <v>0.092409868985267263</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30171929074406639</v>
+        <v>0.020601420899944656</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0016034855785448251</v>
+        <v>-0.056413428562023568</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0029946166555888895</v>
+        <v>-0.0039447868545218487</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.014854900485734504</v>
+        <v>-0.0064746990564738356</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00010634419887165601</v>
+        <v>0.004390477966286231</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00053808612392772129</v>
+        <v>0.00050931482315083609</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00012553758705156234</v>
+        <v>-0.004200693122482467</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>4.5696676828355098e-05</v>
+        <v>-0.0056746332792579485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.27492766718662376</v>
+        <v>0.19651702316464337</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.022405965512368394</v>
+        <v>0.15496944354391207</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7.1499786646454567e-06</v>
+        <v>0.00046065247613124812</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00039739847228672376</v>
+        <v>0.00049328108817712037</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.5728236442196893e-06</v>
+        <v>-0.0065298211965586373</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00023032696833496361</v>
+        <v>-0.014157124888459081</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0045959695928814116</v>
+        <v>0.03902293014082478</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00082631418612000296</v>
+        <v>0.0016562411006712241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26583600817086067</v>
+        <v>0.2882523679257627</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0024245946821086668</v>
+        <v>0.052889005780104685</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0013896676847517371</v>
+        <v>0.045860643090816895</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0073662517489913541</v>
+        <v>-0.037610993186392376</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00039818082530619062</v>
+        <v>-0.0057926426715387367</v>
       </c>
       <c r="H5" s="0">
-        <v>-4.5801489838934433e-05</v>
+        <v>-0.0048837016188768324</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0010985188117893583</v>
+        <v>-0.0038698695041199591</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0014343186034444511</v>
+        <v>0.045142902871125656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.22003102651952822</v>
+        <v>0.20436161226690439</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.044574931853536857</v>
+        <v>-0.077873828182042998</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.2667004359640671e-06</v>
+        <v>0.00083927719080868312</v>
       </c>
       <c r="F6" s="0">
-        <v>0.001848228945086898</v>
+        <v>-0.0056678338077766604</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00042675280096539299</v>
+        <v>-0.004081253199504249</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0002906696312827165</v>
+        <v>0.0012083084703985053</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0037989678755665501</v>
+        <v>0.00168457386925841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.21468785178579158</v>
+        <v>0.37816415367429956</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.019466220348132324</v>
+        <v>0.23699326708147528</v>
       </c>
       <c r="E7" s="0">
-        <v>0.014071457831367012</v>
+        <v>0.00041211597316028825</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0020076192420340911</v>
+        <v>-0.05300542827847924</v>
       </c>
       <c r="G7" s="0">
-        <v>5.3634651354529254e-05</v>
+        <v>0.0058388247640395342</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00052742941786999571</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00093202208718491642</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00055021460530502164</v>
+        <v>-0.016436238132800679</v>
       </c>
     </row>
     <row r="8">
